--- a/templates/PL-J-Lamp_2.xlsx
+++ b/templates/PL-J-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -19,12 +19,6 @@
     <t>Lampiran : 2.</t>
   </si>
   <si>
-    <t>RINCIAN, JUMLAH DAN HARGA JASA BORONGAN PEKERJAAN.............</t>
-  </si>
-  <si>
-    <t>PT PLN (PERSERO) ...........................</t>
-  </si>
-  <si>
     <t>NOMOR     : ..................................................</t>
   </si>
   <si>
@@ -160,13 +154,19 @@
     <t xml:space="preserve">               *) Pilih yang sesuai.</t>
   </si>
   <si>
-    <t>RENCANA KERJA &amp; SYARAT-SYARAT (RKS) PEMILIHAN LANGSUNG</t>
+    <t>RENCANA KERJA &amp; SYARAT-SYARAT (RKS) PENUNJUKAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>RINCIAN, JUMLAH DAN PEKERJAAN JASA .............</t>
+  </si>
+  <si>
+    <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -679,11 +679,6 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -762,7 +757,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,7 +791,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -973,11 +966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1000,7 +993,7 @@
     </row>
     <row r="3" spans="2:8" ht="15">
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1011,7 +1004,7 @@
     </row>
     <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1022,7 +1015,7 @@
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1033,7 +1026,7 @@
     </row>
     <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1044,7 +1037,7 @@
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1067,32 +1060,32 @@
       <c r="D9" s="19"/>
       <c r="E9" s="42"/>
       <c r="F9" s="20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" ht="15">
       <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="G10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
@@ -1115,10 +1108,10 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="44"/>
@@ -1138,11 +1131,11 @@
     <row r="15" spans="2:8">
       <c r="B15" s="18"/>
       <c r="C15" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7"/>
@@ -1151,7 +1144,7 @@
     <row r="16" spans="2:8">
       <c r="B16" s="18"/>
       <c r="C16" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="46"/>
@@ -1162,7 +1155,7 @@
     <row r="17" spans="2:8">
       <c r="B17" s="18"/>
       <c r="C17" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="46"/>
@@ -1173,7 +1166,7 @@
     <row r="18" spans="2:8">
       <c r="B18" s="18"/>
       <c r="C18" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="46"/>
@@ -1184,7 +1177,7 @@
     <row r="19" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="46"/>
@@ -1195,7 +1188,7 @@
     <row r="20" spans="2:8">
       <c r="B20" s="18"/>
       <c r="C20" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="46"/>
@@ -1215,11 +1208,11 @@
     <row r="22" spans="2:8">
       <c r="B22" s="18"/>
       <c r="C22" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="7"/>
@@ -1228,7 +1221,7 @@
     <row r="23" spans="2:8">
       <c r="B23" s="18"/>
       <c r="C23" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="46"/>
@@ -1239,7 +1232,7 @@
     <row r="24" spans="2:8">
       <c r="B24" s="18"/>
       <c r="C24" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="46"/>
@@ -1250,7 +1243,7 @@
     <row r="25" spans="2:8">
       <c r="B25" s="18"/>
       <c r="C25" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="46"/>
@@ -1261,7 +1254,7 @@
     <row r="26" spans="2:8">
       <c r="B26" s="18"/>
       <c r="C26" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="46"/>
@@ -1272,7 +1265,7 @@
     <row r="27" spans="2:8">
       <c r="B27" s="18"/>
       <c r="C27" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="46"/>
@@ -1292,7 +1285,7 @@
     <row r="29" spans="2:8" ht="13.5" thickBot="1">
       <c r="B29" s="18"/>
       <c r="C29" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="46"/>
@@ -1311,10 +1304,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="46"/>
@@ -1334,11 +1327,11 @@
     <row r="33" spans="2:8">
       <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="7"/>
@@ -1347,7 +1340,7 @@
     <row r="34" spans="2:8">
       <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="46"/>
@@ -1367,7 +1360,7 @@
     <row r="36" spans="2:8" ht="13.5" thickBot="1">
       <c r="B36" s="18"/>
       <c r="C36" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="46"/>
@@ -1386,14 +1379,14 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7"/>
@@ -1402,7 +1395,7 @@
     <row r="39" spans="2:8">
       <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="46"/>
@@ -1413,7 +1406,7 @@
     <row r="40" spans="2:8">
       <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="46"/>
@@ -1433,7 +1426,7 @@
     <row r="42" spans="2:8" ht="13.5" thickBot="1">
       <c r="B42" s="18"/>
       <c r="C42" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="46"/>
@@ -1452,14 +1445,14 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
@@ -1468,7 +1461,7 @@
     <row r="45" spans="2:8">
       <c r="B45" s="18"/>
       <c r="C45" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="46"/>
@@ -1479,7 +1472,7 @@
     <row r="46" spans="2:8">
       <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="46"/>
@@ -1490,7 +1483,7 @@
     <row r="47" spans="2:8">
       <c r="B47" s="18"/>
       <c r="C47" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="46"/>
@@ -1510,7 +1503,7 @@
     <row r="49" spans="2:8" ht="13.5" thickBot="1">
       <c r="B49" s="18"/>
       <c r="C49" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="46"/>
@@ -1529,10 +1522,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="46"/>
@@ -1543,7 +1536,7 @@
     <row r="52" spans="2:8">
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="46"/>
@@ -1554,7 +1547,7 @@
     <row r="53" spans="2:8">
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="46"/>
@@ -1574,7 +1567,7 @@
     <row r="55" spans="2:8" ht="13.5" thickBot="1">
       <c r="B55" s="47"/>
       <c r="C55" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="45"/>
@@ -1584,7 +1577,7 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1595,7 +1588,7 @@
     </row>
     <row r="57" spans="2:8" ht="13.5" thickBot="1">
       <c r="B57" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1606,7 +1599,7 @@
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -1617,7 +1610,7 @@
     </row>
     <row r="59" spans="2:8" ht="14.25" thickTop="1" thickBot="1">
       <c r="B59" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -1637,27 +1630,27 @@
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/templates/PL-J-Lamp_2.xlsx
+++ b/templates/PL-J-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -215,15 +215,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray">
@@ -533,25 +530,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -561,11 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -576,10 +549,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,16 +557,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -605,6 +574,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,6 +676,11 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -757,6 +759,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -791,6 +794,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,12 +970,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -984,7 +986,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
@@ -995,23 +997,23 @@
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4" t="s">
@@ -1022,7 +1024,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4" t="s">
@@ -1033,7 +1035,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4" t="s">
@@ -1044,7 +1046,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8" ht="13.5" thickBot="1">
       <c r="B8" s="2"/>
@@ -1055,56 +1057,56 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="2:8" ht="15">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="2:8" ht="15">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18" t="s">
@@ -1114,173 +1116,173 @@
         <v>11</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="44"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="2"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="18"/>
       <c r="C14" s="14"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="2"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="18"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="18"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="2"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="18"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="2"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="18"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="2"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="18"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="2"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="18"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="2"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="18"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="2"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="18"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="18"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="2"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="18"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="2"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="18"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="18"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="18"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="30"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="13.5" thickBot="1">
       <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="46"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="30"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="13.5" thickBot="1">
       <c r="B29" s="18"/>
@@ -1288,19 +1290,19 @@
         <v>17</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="29"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="18"/>
       <c r="C30" s="14"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="18" t="s">
@@ -1310,19 +1312,19 @@
         <v>19</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="46"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="2"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="18"/>
       <c r="C32" s="14"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="18"/>
@@ -1330,12 +1332,12 @@
         <v>20</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="18"/>
@@ -1343,19 +1345,19 @@
         <v>22</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="2"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1">
       <c r="B35" s="18"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" ht="13.5" thickBot="1">
       <c r="B36" s="18"/>
@@ -1363,19 +1365,19 @@
         <v>23</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="2"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="18"/>
       <c r="C37" s="14"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="46"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="2"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="30"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="18" t="s">
@@ -1385,12 +1387,12 @@
         <v>25</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="18"/>
@@ -1398,10 +1400,10 @@
         <v>27</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="46"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="2"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="30"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="18"/>
@@ -1409,19 +1411,19 @@
         <v>28</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="46"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="2"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="30"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8" ht="13.5" thickBot="1">
       <c r="B41" s="18"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="46"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="13.5" thickBot="1">
       <c r="B42" s="18"/>
@@ -1429,19 +1431,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="46"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="35"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="18"/>
       <c r="C43" s="14"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="2"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="18" t="s">
@@ -1451,12 +1453,12 @@
         <v>31</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="18"/>
@@ -1464,10 +1466,10 @@
         <v>32</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="46"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="2"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="18"/>
@@ -1475,10 +1477,10 @@
         <v>32</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="46"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="2"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="18"/>
@@ -1486,19 +1488,19 @@
         <v>32</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="46"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="2"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="30"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:8" ht="13.5" thickBot="1">
       <c r="B48" s="18"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="46"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="2"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="2:8" ht="13.5" thickBot="1">
       <c r="B49" s="18"/>
@@ -1506,19 +1508,19 @@
         <v>33</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="46"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="2"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="35"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="18"/>
       <c r="C50" s="14"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="46"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="2"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="18" t="s">
@@ -1528,10 +1530,10 @@
         <v>35</v>
       </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="46"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="2"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="30"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="6"/>
@@ -1539,10 +1541,10 @@
         <v>32</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="46"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="2"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="6"/>
@@ -1550,30 +1552,30 @@
         <v>32</v>
       </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="46"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="2"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="30"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="2:8" ht="13.5" thickBot="1">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="46"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="2"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="30"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B55" s="47"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="45"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="29"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="16" t="s">
@@ -1584,7 +1586,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="36"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="2:8" ht="13.5" thickBot="1">
       <c r="B57" s="17" t="s">
@@ -1606,50 +1608,50 @@
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="37"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="2:8" ht="14.25" thickTop="1" thickBot="1">
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="40"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" ht="13.5" thickTop="1">
-      <c r="B60" s="52"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="53"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="29" t="s">
         <v>45</v>
       </c>
     </row>

--- a/templates/PL-J-Lamp_2.xlsx
+++ b/templates/PL-J-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -19,12 +19,6 @@
     <t>Lampiran : 2.</t>
   </si>
   <si>
-    <t>NOMOR     : ..................................................</t>
-  </si>
-  <si>
-    <t>TANGGAL : ..................................................</t>
-  </si>
-  <si>
     <t>HARGA SATUAN</t>
   </si>
   <si>
@@ -157,10 +151,16 @@
     <t>RENCANA KERJA &amp; SYARAT-SYARAT (RKS) PENUNJUKAN LANGSUNG</t>
   </si>
   <si>
-    <t>RINCIAN, JUMLAH DAN PEKERJAAN JASA .............</t>
-  </si>
-  <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
+  </si>
+  <si>
+    <t>RINCIAN, JUMLAH DAN PEKERJAAN #namapengadaan#</t>
+  </si>
+  <si>
+    <t>NOMOR     : #nomor#</t>
+  </si>
+  <si>
+    <t>TANGGAL : #tanggal#</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -995,7 +997,7 @@
     </row>
     <row r="3" spans="2:8" ht="15">
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1006,7 +1008,7 @@
     </row>
     <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1017,7 +1019,7 @@
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1028,7 +1030,7 @@
     </row>
     <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1039,7 +1041,7 @@
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1062,32 +1064,32 @@
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
       <c r="F9" s="45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="2:8" ht="15">
       <c r="B10" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="E10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="F10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>9</v>
-      </c>
       <c r="H10" s="49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
@@ -1110,10 +1112,10 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="32"/>
@@ -1133,11 +1135,11 @@
     <row r="15" spans="2:8">
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7"/>
@@ -1146,7 +1148,7 @@
     <row r="16" spans="2:8">
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="34"/>
@@ -1157,7 +1159,7 @@
     <row r="17" spans="2:8">
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="34"/>
@@ -1168,7 +1170,7 @@
     <row r="18" spans="2:8">
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="34"/>
@@ -1179,7 +1181,7 @@
     <row r="19" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="34"/>
@@ -1190,7 +1192,7 @@
     <row r="20" spans="2:8">
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="34"/>
@@ -1210,11 +1212,11 @@
     <row r="22" spans="2:8">
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="7"/>
@@ -1223,7 +1225,7 @@
     <row r="23" spans="2:8">
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="34"/>
@@ -1234,7 +1236,7 @@
     <row r="24" spans="2:8">
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="34"/>
@@ -1245,7 +1247,7 @@
     <row r="25" spans="2:8">
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="34"/>
@@ -1256,7 +1258,7 @@
     <row r="26" spans="2:8">
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="34"/>
@@ -1267,7 +1269,7 @@
     <row r="27" spans="2:8">
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="34"/>
@@ -1287,7 +1289,7 @@
     <row r="29" spans="2:8" ht="13.5" thickBot="1">
       <c r="B29" s="18"/>
       <c r="C29" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="34"/>
@@ -1306,10 +1308,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="34"/>
@@ -1329,11 +1331,11 @@
     <row r="33" spans="2:8">
       <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="7"/>
@@ -1342,7 +1344,7 @@
     <row r="34" spans="2:8">
       <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="34"/>
@@ -1362,7 +1364,7 @@
     <row r="36" spans="2:8" ht="13.5" thickBot="1">
       <c r="B36" s="18"/>
       <c r="C36" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="34"/>
@@ -1381,14 +1383,14 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="7"/>
@@ -1397,7 +1399,7 @@
     <row r="39" spans="2:8">
       <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="34"/>
@@ -1408,7 +1410,7 @@
     <row r="40" spans="2:8">
       <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="34"/>
@@ -1428,7 +1430,7 @@
     <row r="42" spans="2:8" ht="13.5" thickBot="1">
       <c r="B42" s="18"/>
       <c r="C42" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="34"/>
@@ -1447,14 +1449,14 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
@@ -1463,7 +1465,7 @@
     <row r="45" spans="2:8">
       <c r="B45" s="18"/>
       <c r="C45" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="34"/>
@@ -1474,7 +1476,7 @@
     <row r="46" spans="2:8">
       <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="34"/>
@@ -1485,7 +1487,7 @@
     <row r="47" spans="2:8">
       <c r="B47" s="18"/>
       <c r="C47" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="34"/>
@@ -1505,7 +1507,7 @@
     <row r="49" spans="2:8" ht="13.5" thickBot="1">
       <c r="B49" s="18"/>
       <c r="C49" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="34"/>
@@ -1524,10 +1526,10 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="34"/>
@@ -1538,7 +1540,7 @@
     <row r="52" spans="2:8">
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="34"/>
@@ -1549,7 +1551,7 @@
     <row r="53" spans="2:8">
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="34"/>
@@ -1569,7 +1571,7 @@
     <row r="55" spans="2:8" ht="13.5" thickBot="1">
       <c r="B55" s="35"/>
       <c r="C55" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="33"/>
@@ -1579,7 +1581,7 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1590,7 +1592,7 @@
     </row>
     <row r="57" spans="2:8" ht="13.5" thickBot="1">
       <c r="B57" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1601,7 +1603,7 @@
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -1612,7 +1614,7 @@
     </row>
     <row r="59" spans="2:8" ht="14.25" thickTop="1" thickBot="1">
       <c r="B59" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -1632,27 +1634,27 @@
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
